--- a/LEAVE.xlsx
+++ b/LEAVE.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE" sheetId="1" r:id="rId1"/>
     <sheet name="TABLE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>EMPLOYEE LEAVE</t>
   </si>
@@ -130,13 +131,34 @@
   </si>
   <si>
     <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>1.show all departmen api</t>
+  </si>
+  <si>
+    <t>2.show all employee name as like name or code</t>
+  </si>
+  <si>
+    <t>3.show all leavename from leavemaster</t>
+  </si>
+  <si>
+    <t>viewleavedetails</t>
+  </si>
+  <si>
+    <t>viewdepartmentemployee</t>
+  </si>
+  <si>
+    <t>viewdepartment</t>
+  </si>
+  <si>
+    <t>4.show available leave amount of perticular that employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +166,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,17 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -301,7 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,7 +367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,29 +542,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
@@ -552,7 +582,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -562,7 +592,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
@@ -584,7 +614,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -606,7 +636,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
@@ -620,7 +650,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -630,7 +660,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
@@ -643,6 +673,40 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -650,19 +714,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -670,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -678,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -686,7 +750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -694,7 +758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -702,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -710,7 +774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -718,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -726,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -734,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -742,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -750,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -758,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -772,12 +836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
